--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3277.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3277.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.867814309114789</v>
+        <v>1.395667552947998</v>
       </c>
       <c r="B1">
-        <v>1.244099088262753</v>
+        <v>3.036719083786011</v>
       </c>
       <c r="C1">
-        <v>2.365950516989544</v>
+        <v>2.712340593338013</v>
       </c>
       <c r="D1">
-        <v>5.232323431058732</v>
+        <v>1.530779242515564</v>
       </c>
       <c r="E1">
-        <v>1.948700838843652</v>
+        <v>1.160770177841187</v>
       </c>
     </row>
   </sheetData>
